--- a/doc/问题管理视图属性V0.1.xlsx
+++ b/doc/问题管理视图属性V0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\全生命周期质量管理平台\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D88316-1ED4-4D43-A033-1D452F312FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEED062-2F57-413D-AECE-111FEA8C3313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="285" windowWidth="19095" windowHeight="15015" xr2:uid="{46BC4720-1441-48BA-867E-7B7B8870A1B4}"/>
+    <workbookView xWindow="3300" yWindow="2475" windowWidth="25185" windowHeight="12570" xr2:uid="{46BC4720-1441-48BA-867E-7B7B8870A1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="通用问题属性" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="试产问题属性" sheetId="3" r:id="rId6"/>
     <sheet name="研发问题属性" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,22 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>责任分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商、研发、生产、客户、渠道商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发现人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马上解决、急需解决、高度重视、正常处理、低优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非常严重、严重、一般、不严重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计、硬件、软件、工艺、结构、器件、平台、工程、采购、生产、售后等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成品条码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,157 +294,163 @@
     <t>（产品编码）</t>
   </si>
   <si>
+    <t>PCB周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过SN识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良PCBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA售后服务单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过质保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏机到厂时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货入库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货通知单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退机、返修、换新机、换旧机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASS、DIP、SMT、TEST、老化、装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试产数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试产地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试产直通率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归验证状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASS、DIP、SMT、TEST、老化、气密、装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A\B\C\D （致命、严重、一般、轻微）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建、分发、解决、挂起、关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>致命10分</t>
-  </si>
-  <si>
-    <t>和得分关联</t>
-  </si>
-  <si>
-    <t>PCB周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以通过SN识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良PCBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OA售后服务单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否过质保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坏机到厂时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货入库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货通知单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术服务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退机、返修、换新机、换旧机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASS、DIP、SMT、TEST、老化、装配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题性质评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整机编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试产数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试产地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试产直通率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归验证状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整机单板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASS、DIP、SMT、TEST、老化、气密、装配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计、制程、物料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A\B\C\D （致命、严重、一般、轻微）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增、登记、评估、解决、验证、取消、遗留、关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样机外观、样机电性能及功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题性质分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计、制程、物料（NPI分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证、验证中、PASS、FAIL、无措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机/单板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机单板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单板、整机、认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1628F-5AAF-4F1A-8C55-EAAC51E78F02}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -901,25 +879,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -937,12 +915,12 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -956,157 +934,139 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1120,7 +1080,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1132,21 +1092,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1154,7 +1114,7 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1162,7 +1122,7 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1170,7 +1130,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1178,7 +1138,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -1186,7 +1146,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1194,7 +1154,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -1202,7 +1162,7 @@
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1210,7 +1170,7 @@
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1218,17 +1178,17 @@
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1236,7 +1196,7 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1244,7 +1204,7 @@
     </row>
     <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1252,7 +1212,7 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1260,17 +1220,17 @@
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1278,7 +1238,7 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1286,7 +1246,7 @@
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1294,7 +1254,7 @@
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1302,7 +1262,7 @@
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1418,41 +1378,41 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1463,12 +1423,12 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1605,39 +1565,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1773,7 +1733,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1785,115 +1745,115 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1976,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4A14DE-582A-4CCD-A139-43F0442B6101}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1990,13 +1950,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,30 +1965,30 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2047,10 +2007,12 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -2058,105 +2020,97 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -2192,21 +2146,6 @@
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2220,7 +2159,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2231,13 +2170,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/问题管理视图属性V0.1.xlsx
+++ b/doc/问题管理视图属性V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEED062-2F57-413D-AECE-111FEA8C3313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C79274-8B24-4BC9-8B4A-8D554557736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2475" windowWidth="25185" windowHeight="12570" xr2:uid="{46BC4720-1441-48BA-867E-7B7B8870A1B4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25185" windowHeight="15015" xr2:uid="{46BC4720-1441-48BA-867E-7B7B8870A1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="通用问题属性" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片格式JPG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,6 +443,10 @@
   </si>
   <si>
     <t>单板、整机、认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1628F-5AAF-4F1A-8C55-EAAC51E78F02}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -879,25 +875,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -915,12 +911,12 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -934,139 +930,146 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1092,21 +1095,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1122,7 +1125,7 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1138,7 +1141,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -1146,7 +1149,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1178,17 +1181,17 @@
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1204,7 +1207,7 @@
     </row>
     <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1220,17 +1223,17 @@
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1238,7 +1241,7 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1246,7 +1249,7 @@
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1378,41 +1381,41 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1423,12 +1426,12 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1565,39 +1568,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1745,115 +1748,115 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1936,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4A14DE-582A-4CCD-A139-43F0442B6101}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1950,13 +1953,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1965,67 +1968,67 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2070,32 +2073,28 @@
         <v>86</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -2136,16 +2135,6 @@
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2170,13 +2159,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/问题管理视图属性V0.1.xlsx
+++ b/doc/问题管理视图属性V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C79274-8B24-4BC9-8B4A-8D554557736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0BC8DF-427A-4940-8E06-AAED587C3DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25185" windowHeight="15015" xr2:uid="{46BC4720-1441-48BA-867E-7B7B8870A1B4}"/>
+    <workbookView xWindow="1425" yWindow="615" windowWidth="18135" windowHeight="15015" firstSheet="1" activeTab="4" xr2:uid="{46BC4720-1441-48BA-867E-7B7B8870A1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="通用问题属性" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(发现地点)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期望解决时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据时间做提醒功能，严重致命默认要紧急提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,14 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解决人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整机/单板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整机单板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +419,38 @@
   </si>
   <si>
     <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归验证地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归验证人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归验证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归验证情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机/输出板/功率板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并到问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并到发现时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1628F-5AAF-4F1A-8C55-EAAC51E78F02}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -875,10 +879,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -886,14 +890,14 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -916,7 +920,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -930,79 +934,81 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1013,25 +1019,25 @@
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,33 +1049,40 @@
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,7 +1096,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1095,21 +1108,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1117,7 +1130,7 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1125,7 +1138,7 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1133,7 +1146,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1141,7 +1154,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -1149,7 +1162,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1173,7 +1186,7 @@
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1181,17 +1194,17 @@
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1199,7 +1212,7 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1207,7 +1220,7 @@
     </row>
     <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1215,7 +1228,7 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1223,17 +1236,17 @@
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1241,7 +1254,7 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1249,7 +1262,7 @@
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1257,7 +1270,7 @@
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1265,7 +1278,7 @@
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1381,10 +1394,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -1392,7 +1405,7 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1406,16 +1419,16 @@
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1426,12 +1439,12 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1568,10 +1581,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -1579,28 +1592,28 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1735,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEADA48-05C2-4073-BFC9-EB672B90252F}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1748,13 +1761,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1763,26 +1776,26 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1835,31 +1848,35 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -1939,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4A14DE-582A-4CCD-A139-43F0442B6101}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1953,13 +1970,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,16 +1985,16 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,95 +2013,89 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -2125,16 +2136,6 @@
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2159,10 +2160,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
